--- a/biology/Biologie cellulaire et moléculaire/PKM2/PKM2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/PKM2/PKM2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">PKM2 (pour « pyruvate kinase musculaire 2 », est l'une des deux isoformes (avec le PKM1), issue de l'épissage alternatif du gène PKM située sur le chromosome 15 humain.
 </t>
@@ -511,12 +523,14 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il permet la catalyse de la glycolyse, favorisant la voie aérobie (« effet Warburg »[5]). Il a également un rôle de tyrosine kinase permettant la régulation de l'expression de divers gènes[6].
-Le récepteur de l'EGF permet la migration du PKM2 dans le noyau cellulaire, où Il active la bêta-caténine, jouant un rôle dans la régulation de la tumorogenèse[7]. 
-Il favorise la mobilisation des astrocytes après un traumatisme de la moelle épinière[8].
-Il favorise également la prolifération des cardiomyocytes, notamment après un infarctus du myocarde[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il permet la catalyse de la glycolyse, favorisant la voie aérobie (« effet Warburg »). Il a également un rôle de tyrosine kinase permettant la régulation de l'expression de divers gènes.
+Le récepteur de l'EGF permet la migration du PKM2 dans le noyau cellulaire, où Il active la bêta-caténine, jouant un rôle dans la régulation de la tumorogenèse. 
+Il favorise la mobilisation des astrocytes après un traumatisme de la moelle épinière.
+Il favorise également la prolifération des cardiomyocytes, notamment après un infarctus du myocarde.
 </t>
         </is>
       </c>
